--- a/EL - Electrical/Cost/EL_A0003.xlsx
+++ b/EL - Electrical/Cost/EL_A0003.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13620" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8565" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -849,18 +849,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
     <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="178" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -977,16 +977,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,14 +992,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,16 +1037,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,6 +1060,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1068,28 +1075,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,26 +1105,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1202,25 +1202,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,31 +1238,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,25 +1286,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,31 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,31 +1364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,11 +1698,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,7 +1747,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,36 +1817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1795,47 +1825,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1844,138 +1844,138 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="12" borderId="29">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="11" borderId="28">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="28">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="35">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,7 +2008,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2023,7 +2023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2048,18 +2048,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2094,7 +2094,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2111,29 +2111,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
@@ -2148,98 +2148,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="37" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2247,35 +2247,35 @@
     <xf numFmtId="2" fontId="4" fillId="10" borderId="26" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Currency 2" xfId="2"/>
-    <cellStyle name="Monétaire 2" xfId="3"/>
-    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Monétaire 2" xfId="2"/>
+    <cellStyle name="Currency 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -2982,7 +2982,7 @@
   </sheetPr>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3339,7 +3339,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="11.25"/>
@@ -6093,7 +6093,7 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -7863,7 +7863,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>

--- a/EL - Electrical/Cost/EL_A0003.xlsx
+++ b/EL - Electrical/Cost/EL_A0003.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8565" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>Petite marche à suivre pour remplir cette merveille qu'est le cost</t>
   </si>
@@ -669,34 +669,37 @@
     <t>Paint</t>
   </si>
   <si>
+    <t>Brackets painting</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Mult. Val.</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>Tabs welding on frame</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Aerosol apply</t>
+  </si>
+  <si>
     <t>Tabs painting</t>
-  </si>
-  <si>
-    <t>m^2</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Mult. Val.</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>Tabs welding on frame</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Aerosol apply</t>
   </si>
   <si>
     <t>Assemble, 1kg, Loose</t>
@@ -848,19 +851,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -977,8 +980,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,25 +1002,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,11 +1025,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1044,38 +1040,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1091,6 +1057,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1098,7 +1079,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,18 +1099,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1202,25 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1247,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,25 +1337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,37 +1361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,43 +1373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,21 +1701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFD0D7E5"/>
       </left>
@@ -1728,6 +1716,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1739,24 +1736,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,6 +1770,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1806,13 +1805,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1828,154 +1831,154 @@
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="12" borderId="29">
+    <xf numFmtId="44" fontId="20" fillId="11" borderId="29">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="28">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="27">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,7 +2011,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2023,14 +2026,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2048,18 +2051,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2087,15 +2090,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2111,29 +2114,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
@@ -2148,98 +2151,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="183" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="183" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="37" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2247,35 +2250,35 @@
     <xf numFmtId="2" fontId="4" fillId="10" borderId="26" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Monétaire 2" xfId="2"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Currency 2" xfId="2"/>
+    <cellStyle name="Monétaire 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -6093,8 +6096,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6682,7 +6685,7 @@
         <v>135</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D22" s="50">
         <v>5.25</v>
@@ -6709,16 +6712,16 @@
         <v>30</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="50">
         <v>0.25</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="75">
         <v>2</v>
@@ -6741,16 +6744,16 @@
         <v>40</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" s="50">
         <v>0.25</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="75">
         <v>8</v>
@@ -6773,16 +6776,16 @@
         <v>50</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D25" s="50">
         <v>0.13</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="75">
         <v>1</v>
@@ -6805,16 +6808,16 @@
         <v>60</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" s="50">
         <v>0.06</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="75">
         <v>1</v>
@@ -6837,10 +6840,10 @@
         <v>70</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" s="50">
         <v>0.5</v>
@@ -6867,10 +6870,10 @@
         <v>80</v>
       </c>
       <c r="B28" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="62" t="s">
         <v>146</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>145</v>
       </c>
       <c r="D28" s="50">
         <v>0.25</v>
@@ -6936,7 +6939,7 @@
         <v>107</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>112</v>
@@ -6973,10 +6976,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="68">
         <v>0.04</v>
@@ -6985,13 +6988,13 @@
         <v>6</v>
       </c>
       <c r="F32" s="76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G32" s="76">
         <v>20</v>
       </c>
       <c r="H32" s="76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I32" s="52">
         <v>2</v>
@@ -7011,10 +7014,10 @@
         <v>20</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="68">
         <v>0.03</v>
@@ -7023,7 +7026,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
@@ -7045,10 +7048,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" s="70">
         <v>0.01</v>
@@ -7057,7 +7060,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G34" s="66"/>
       <c r="H34" s="66"/>
@@ -7118,7 +7121,7 @@
         <v>107</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="61" t="s">
         <v>112</v>
@@ -7133,10 +7136,10 @@
         <v>82</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I37" s="61" t="s">
         <v>110</v>
@@ -7153,16 +7156,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D38" s="50">
         <v>500</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F38" s="62">
         <v>4</v>
@@ -7344,7 +7347,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -7392,7 +7395,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
@@ -7422,7 +7425,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -7466,7 +7469,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -7549,7 +7552,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
@@ -7564,7 +7567,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="33"/>
       <c r="I11" s="41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J11" s="42">
         <v>0.0427</v>
@@ -7663,16 +7666,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D15" s="28">
         <v>1.3</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="27">
         <v>1</v>
@@ -7697,10 +7700,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="19">
         <v>0.01</v>
@@ -7731,14 +7734,14 @@
         <v>30</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="19">
         <v>0.35</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="36">
         <v>2</v>
@@ -7835,7 +7838,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>EL_03001</f>
@@ -7863,7 +7866,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -7943,7 +7946,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -7991,7 +7994,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
@@ -8021,7 +8024,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -8065,7 +8068,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -8148,7 +8151,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
@@ -8163,7 +8166,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="33"/>
       <c r="I11" s="41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J11" s="42">
         <v>0.0112</v>
@@ -8262,14 +8265,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28">
         <v>1.3</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="27">
         <v>1</v>
@@ -8292,10 +8295,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="19">
         <v>0.01</v>
@@ -8324,14 +8327,14 @@
         <v>30</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="19">
         <v>0.35</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="36">
         <v>4</v>
@@ -8443,7 +8446,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>EL_03002</f>
@@ -8552,7 +8555,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -8600,7 +8603,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
@@ -8630,7 +8633,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -8674,7 +8677,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -8757,10 +8760,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D11" s="19">
         <v>2.25</v>
@@ -8769,16 +8772,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G11" s="18">
         <v>20</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J11" s="42">
         <f>E11*G11*0.000001</f>
@@ -8878,22 +8881,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D15" s="28">
         <v>1.3</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="27">
         <v>1</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H15" s="27">
         <f>1/3</f>
@@ -8915,10 +8918,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="19">
         <v>0.01</v>
@@ -8930,7 +8933,7 @@
         <v>5.83</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H16" s="36">
         <v>2.5</v>
@@ -9040,7 +9043,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>EL_03003</f>
